--- a/biology/Zoologie/Achalinus_werneri/Achalinus_werneri.xlsx
+++ b/biology/Zoologie/Achalinus_werneri/Achalinus_werneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achalinus werneri est une espèce de serpents de la famille des Xenodermatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achalinus werneri est une espèce de serpents de la famille des Xenodermatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon[1]. Elle se rencontre sur Amamioshima, Edakutejima, Tokunoshima et Okinawajima[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon. Elle se rencontre sur Amamioshima, Edakutejima, Tokunoshima et Okinawajima. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franz Werner[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franz Werner.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Van Denburgh, 1912 : Concerning certain species of reptiles and amphibians from China, Japan, the Loo Choo Islands, and Formosa. Proceedings of the California Academy of Sciences, sér. 4, vol. 3, no 10, p. 187-258 (texte intégral).</t>
         </is>
